--- a/biology/Zoologie/Heliconius_demeter/Heliconius_demeter.xlsx
+++ b/biology/Zoologie/Heliconius_demeter/Heliconius_demeter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius demeter est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,12 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand papillon aux ailes allongées et arrondies de couleur marron et orange. Les ailes antérieures ont une petite partie basale orange et le reste marron coupé d'une barre de taches jaune pâle. Les ailes postérieures sont marron avec des lignes orange allant de la base jusqu'à la marge.
 Le revers est semblable, avec un peu moins de coloration orange.
-Chenilles
-La chenille est jaune avec des taches et des lignes noires une tête et de épines noires[1].
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes sont des Dilkea et Mitostemma[1].
+          <t>Chenilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est jaune avec des taches et des lignes noires une tête et de épines noires.
 </t>
         </is>
       </c>
@@ -574,14 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est présent en Guyane, en Guyana, en Équateur, en Bolivie, au Brésil et au Pérou[2].
-Biotope
-Il réside dans la forêt tropicale amazonienne[1].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes sont des Dilkea et Mitostemma.
 </t>
         </is>
       </c>
@@ -607,19 +628,195 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Guyane, en Guyana, en Équateur, en Bolivie, au Brésil et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heliconius_demeter</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_demeter</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale amazonienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_demeter</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_demeter</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Heliconius demeter a été décrit par l'entomologiste allemand Otto Staudinger en 1897 sous le protonyme de Papilio demeter[3]
-Synonymie
-Papilio demeter Staudinger,  1897 protonyme
-Heliconius demeter f. similis Neustetter, 1931
-Noms vernaculaires
-Il se nomme Demeter Longwing en anglais.
-Taxinomie
-Sous-espèces [2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius demeter a été décrit par l'entomologiste allemand Otto Staudinger en 1897 sous le protonyme de Papilio demeter
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_demeter</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_demeter</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Papilio demeter Staudinger,  1897 protonyme
+Heliconius demeter f. similis Neustetter, 1931</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heliconius_demeter</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_demeter</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Demeter Longwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Heliconius_demeter</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_demeter</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sous-espèces .
 Heliconius demeter demeter ; présent au Brésil et  au Pérou.
 Heliconius demeter angeli Neukirchen, 1997; présent au Pérou.
 Heliconius demeter beebei Turner, 1966; présent en Guyana
